--- a/test_data/testCreateBMEcatFromExcelFullDataFiege.xlsx
+++ b/test_data/testCreateBMEcatFromExcelFullDataFiege.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>articleType</t>
   </si>
@@ -274,6 +274,30 @@
   </si>
   <si>
     <t>"Keyword 1","Keyword 2"</t>
+  </si>
+  <si>
+    <t>Test Article 2</t>
+  </si>
+  <si>
+    <t>Test Description 2</t>
+  </si>
+  <si>
+    <t>manufacturer/Test2_1.jpg</t>
+  </si>
+  <si>
+    <t>manufacturer/Test2_".jpg</t>
+  </si>
+  <si>
+    <t>Test2_1</t>
+  </si>
+  <si>
+    <t>Test2_2</t>
+  </si>
+  <si>
+    <t>Test2_3</t>
+  </si>
+  <si>
+    <t>Test2_4</t>
   </si>
 </sst>
 </file>
@@ -613,13 +637,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -902,6 +929,134 @@
       </c>
       <c r="AY2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>12346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>12345678901235</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3">
+        <v>120.5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3">
+        <v>0.19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3">
+        <v>17.5</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3">
+        <v>0.19</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3">
+        <v>12346</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/testCreateBMEcatFromExcelFullDataFiege.xlsx
+++ b/test_data/testCreateBMEcatFromExcelFullDataFiege.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>articleType</t>
   </si>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,8 +825,8 @@
       <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
-        <v>58</v>
+      <c r="I2">
+        <v>1.5</v>
       </c>
       <c r="J2" t="s">
         <v>59</v>
